--- a/DATA_goal/Junction_Flooding_242.xlsx
+++ b/DATA_goal/Junction_Flooding_242.xlsx
@@ -451,25 +451,25 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41674.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.07</v>
+        <v>0.71</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.47</v>
+        <v>0.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>91.01000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41674.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.07</v>
+        <v>0.31</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.45</v>
+        <v>0.35</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.51</v>
+        <v>0.35</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>35.05</v>
+        <v>3.5</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.21</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41674.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.63</v>
+        <v>4.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.36</v>
+        <v>3.64</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.38</v>
+        <v>5.74</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.74</v>
+        <v>2.47</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.93</v>
+        <v>1.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.63</v>
+        <v>2.26</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.68</v>
+        <v>1.37</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.83</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>237.59</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>44.88</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>14.85</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>29.54</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>13.71</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>18.98</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>52.13</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>8.27</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41674.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.9</v>
+        <v>0.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="T5" s="4" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>2.36</v>
-      </c>
       <c r="AE5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.05</v>
+        <v>1.4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41674.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.33</v>
+        <v>1.33</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>29.23</v>
+        <v>2.92</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>23.81</v>
+        <v>2.38</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>37.87</v>
+        <v>3.79</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>14.79</v>
+        <v>1.48</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>8.949999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>152.88</v>
+        <v>15.29</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>29.29</v>
+        <v>2.93</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>19.58</v>
+        <v>1.96</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.65</v>
+        <v>0.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>12.39</v>
+        <v>1.24</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>34.12</v>
+        <v>3.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41674.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.82</v>
+        <v>0.28</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>21.38</v>
+        <v>2.14</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.45</v>
+        <v>0.15</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41674.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.22</v>
+        <v>1.92</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.42</v>
+        <v>1.44</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>41.99</v>
+        <v>4.2</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>34.46</v>
+        <v>3.45</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>54.15</v>
+        <v>5.41</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.3</v>
+        <v>2.33</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.86</v>
+        <v>1.69</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.91</v>
+        <v>1.79</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.42</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.69</v>
+        <v>1.27</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>222.71</v>
+        <v>22.27</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>42.12</v>
+        <v>4.21</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>28.36</v>
+        <v>2.84</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.33</v>
+        <v>2.73</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.75</v>
+        <v>1.78</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>48.95</v>
+        <v>4.9</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41674.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.29</v>
+        <v>1.43</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>41.58</v>
+        <v>4.16</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>34.15</v>
+        <v>3.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.82</v>
+        <v>1.48</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>58.56</v>
+        <v>5.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>23.08</v>
+        <v>2.31</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.27</v>
+        <v>2.13</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>220.45</v>
+        <v>22.04</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>41.86</v>
+        <v>4.19</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.81</v>
+        <v>1.38</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>28.21</v>
+        <v>2.82</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>28.85</v>
+        <v>2.89</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>53.31</v>
+        <v>5.33</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41674.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>20.78</v>
+        <v>2.08</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>45.35</v>
+        <v>4.53</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>37.28</v>
+        <v>3.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>63.94</v>
+        <v>6.39</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>16.67</v>
+        <v>1.67</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>19.32</v>
+        <v>1.93</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>16.32</v>
+        <v>1.63</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>23.21</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>241.05</v>
+        <v>24.1</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>45.64</v>
+        <v>4.56</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>15.06</v>
+        <v>1.51</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>30.78</v>
+        <v>3.08</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>16.23</v>
+        <v>1.62</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>31.36</v>
+        <v>3.14</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>13.3</v>
+        <v>1.33</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>19.15</v>
+        <v>1.92</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>58.12</v>
+        <v>5.81</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>18.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_242.xlsx
+++ b/DATA_goal/Junction_Flooding_242.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44923.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44923.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.49</v>
+        <v>24.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.96</v>
+        <v>19.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.57</v>
+        <v>35.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.93</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.37</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.63</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.53</v>
+        <v>25.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.66</v>
+        <v>16.59</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.73</v>
+        <v>17.31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.43</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.8</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44923.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.86</v>
+        <v>28.61</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.85</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.88</v>
+        <v>48.8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.78</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.27</v>
+        <v>12.72</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.42</v>
+        <v>14.22</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.94</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.78</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.81</v>
+        <v>18.08</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.94</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>18.72</v>
+        <v>187.24</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.57</v>
+        <v>35.72</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.81</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.45</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.97</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.44</v>
+        <v>44.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44923.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.79</v>
+        <v>27.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.88</v>
+        <v>48.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.45</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.47</v>
+        <v>34.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.32</v>
+        <v>23.22</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.9</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.44</v>
+        <v>44.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_242.xlsx
+++ b/DATA_goal/Junction_Flooding_242.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44923.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
@@ -762,100 +762,100 @@
         <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.99</v>
+        <v>7.989</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.614</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.93</v>
+        <v>24.928</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19.62</v>
+        <v>19.621</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.69</v>
+        <v>35.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.93</v>
+        <v>5.932</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.6</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>9.959</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.37</v>
+        <v>10.367</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.63</v>
+        <v>12.634</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.932</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.482</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.946</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.02</v>
+        <v>130.023</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.3</v>
+        <v>25.298</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.59</v>
+        <v>16.585</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.56</v>
+        <v>8.561</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.866</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.31</v>
+        <v>17.306</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>6.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.43</v>
+        <v>10.427</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.8</v>
+        <v>32.797</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.51</v>
+        <v>4.506</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44923.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.33</v>
+        <v>16.334</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>11.83</v>
+        <v>11.825</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.306</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>35.47</v>
+        <v>35.469</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>28.61</v>
+        <v>28.612</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.85</v>
+        <v>12.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.8</v>
+        <v>48.801</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>19.78</v>
+        <v>19.779</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.659000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.72</v>
+        <v>12.717</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.22</v>
+        <v>14.224</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.94</v>
+        <v>14.942</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.11</v>
+        <v>4.106</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12.78</v>
+        <v>12.783</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.08</v>
+        <v>18.084</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.94</v>
+        <v>10.937</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.03</v>
+        <v>1.032</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.831</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>187.24</v>
+        <v>187.239</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>35.72</v>
+        <v>35.722</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>11.8</v>
+        <v>11.799</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>23.81</v>
+        <v>23.812</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.45</v>
+        <v>12.448</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.13</v>
+        <v>2.125</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>23.79</v>
+        <v>23.792</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.42</v>
+        <v>10.422</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.97</v>
+        <v>10.969</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>14.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.39</v>
+        <v>44.388</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.55</v>
+        <v>6.551</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>14.75</v>
+        <v>14.751</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>14.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44923.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_242.xlsx
+++ b/DATA_goal/Junction_Flooding_242.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,67 +967,67 @@
         <v>44923.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.58</v>
+        <v>11.577</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.45</v>
+        <v>34.453</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.93</v>
+        <v>27.926</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>48.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.464</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.45</v>
+        <v>12.448</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.83</v>
+        <v>13.825</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.55</v>
+        <v>14.553</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.6</v>
+        <v>17.603</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.55</v>
+        <v>10.555</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.53</v>
+        <v>181.525</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.71</v>
+        <v>34.715</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>23.22</v>
@@ -1036,34 +1036,138 @@
         <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.96</v>
+        <v>1.962</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.63</v>
+        <v>23.632</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9</v>
+        <v>9.002000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.6</v>
+        <v>10.603</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>14.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.45</v>
+        <v>44.449</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.391</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44923.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>67.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_242.xlsx
+++ b/DATA_goal/Junction_Flooding_242.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,67 +967,67 @@
         <v>44923.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>15.854</v>
+        <v>15.85</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.577</v>
+        <v>11.58</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>1.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>34.453</v>
+        <v>34.45</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>27.926</v>
+        <v>27.93</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>12.477</v>
+        <v>12.48</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>48.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>19.197</v>
+        <v>19.2</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.464</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.448</v>
+        <v>12.45</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13.825</v>
+        <v>13.83</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>14.553</v>
+        <v>14.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.986</v>
+        <v>3.99</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12.407</v>
+        <v>12.41</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>17.603</v>
+        <v>17.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>10.555</v>
+        <v>10.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>181.525</v>
+        <v>181.53</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>34.715</v>
+        <v>34.71</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>11.452</v>
+        <v>11.45</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>23.22</v>
@@ -1036,138 +1036,34 @@
         <v>12.15</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.962</v>
+        <v>1.96</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>23.632</v>
+        <v>23.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.115</v>
+        <v>10.12</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.002000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>10.603</v>
+        <v>10.6</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>14.51</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>44.449</v>
+        <v>44.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.391</v>
+        <v>6.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>14.318</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44923.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.71</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
